--- a/biology/Botanique/Pulicaire_odorante/Pulicaire_odorante.xlsx
+++ b/biology/Botanique/Pulicaire_odorante/Pulicaire_odorante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulicaria odora
 La Pulicaire odorante, Pulicaria odora, est une espèce de plantes à fleurs de la famille des Asteraceae. C'est une plante méditerranéenne que l'on retrouve aussi au Portugal et aux Canaries.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Pulicaria odora (L.) Rchb.[1].
-L'espèce a été initialement classée dans le genre Inula sous le basionyme Inula odora L.[1].
-Le nom recommandé ou typique pour ce taxon est Pulicaire odorante[2]. On rencontre également le nom Inule odorante[3].
-Pulicaria odora a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Pulicaria odora (L.) Rchb..
+L'espèce a été initialement classée dans le genre Inula sous le basionyme Inula odora L..
+Le nom recommandé ou typique pour ce taxon est Pulicaire odorante. On rencontre également le nom Inule odorante.
+Pulicaria odora a pour synonymes :
 Inula apula Crantz
 Inula dumetorum Salzm.
 Inula dumetorum Salzm. ex DC.
